--- a/teaching/traditional_assets/database/data/south_africa/south_africa_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/south_africa/south_africa_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ15"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0581</v>
+        <v>0.0335</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
+        <v>0.005530000000000001</v>
       </c>
       <c r="F2">
-        <v>0.124</v>
+        <v>0.135</v>
       </c>
       <c r="G2">
-        <v>0.03022977326310852</v>
+        <v>0.02152094661784383</v>
       </c>
       <c r="H2">
-        <v>0.02800175526333934</v>
+        <v>0.01929280892432787</v>
       </c>
       <c r="I2">
-        <v>0.01364221889190408</v>
+        <v>0.01613704300681666</v>
       </c>
       <c r="J2">
-        <v>0.01179049025604873</v>
+        <v>0.01422216896732155</v>
       </c>
       <c r="K2">
-        <v>3780.171</v>
+        <v>4263.972</v>
       </c>
       <c r="L2">
-        <v>0.3113945735277655</v>
+        <v>0.5555000138745638</v>
       </c>
       <c r="M2">
-        <v>2229.9446</v>
+        <v>1099.3732</v>
       </c>
       <c r="N2">
-        <v>0.04953070710261553</v>
+        <v>0.04459731384082209</v>
       </c>
       <c r="O2">
-        <v>0.5899057476500401</v>
+        <v>0.2578284285168852</v>
       </c>
       <c r="P2">
-        <v>2043.4976</v>
+        <v>983.1732</v>
       </c>
       <c r="Q2">
-        <v>0.04538941509600633</v>
+        <v>0.0398835297788643</v>
       </c>
       <c r="R2">
-        <v>0.5405833757255954</v>
+        <v>0.2305768424370516</v>
       </c>
       <c r="S2">
-        <v>186.447</v>
+        <v>116.2</v>
       </c>
       <c r="T2">
-        <v>0.08361059732156575</v>
+        <v>0.1056965914759428</v>
       </c>
       <c r="U2">
-        <v>13719.03</v>
+        <v>13979.052</v>
       </c>
       <c r="V2">
-        <v>0.304722035095399</v>
+        <v>0.567076011350078</v>
       </c>
       <c r="W2">
-        <v>0.1113898645258404</v>
+        <v>0.08025777910514625</v>
       </c>
       <c r="X2">
-        <v>0.03395331412313654</v>
+        <v>0.03086598946274317</v>
       </c>
       <c r="Y2">
-        <v>0.07743655040270389</v>
+        <v>0.04939178964240308</v>
       </c>
       <c r="Z2">
-        <v>0.2812343583429308</v>
+        <v>0.2916208662837992</v>
       </c>
       <c r="AA2">
-        <v>0.00011139331772411</v>
+        <v>0.000164214139950986</v>
       </c>
       <c r="AB2">
-        <v>0.03608140159727898</v>
+        <v>0.0389745515582952</v>
       </c>
       <c r="AC2">
-        <v>-0.03339940439565583</v>
+        <v>-0.03584166231354519</v>
       </c>
       <c r="AD2">
-        <v>40457.402</v>
+        <v>24869.493</v>
       </c>
       <c r="AE2">
-        <v>788.4471691306909</v>
+        <v>0.5469862712247047</v>
       </c>
       <c r="AF2">
-        <v>41245.84916913069</v>
+        <v>24870.03998627123</v>
       </c>
       <c r="AG2">
-        <v>27526.81916913069</v>
+        <v>10890.98798627123</v>
       </c>
       <c r="AH2">
-        <v>0.478116809261048</v>
+        <v>0.5022104898126747</v>
       </c>
       <c r="AI2">
-        <v>0.6364888393756667</v>
+        <v>0.567073994647634</v>
       </c>
       <c r="AJ2">
-        <v>0.3794276118285407</v>
+        <v>0.3064250344289787</v>
       </c>
       <c r="AK2">
-        <v>0.5388632457221271</v>
+        <v>0.3645186015066814</v>
       </c>
       <c r="AL2">
-        <v>287.742</v>
+        <v>197.18</v>
       </c>
       <c r="AM2">
-        <v>63.03400000000002</v>
+        <v>13.56799999999998</v>
       </c>
       <c r="AN2">
-        <v>101.7107969701007</v>
+        <v>187.0927658998239</v>
       </c>
       <c r="AO2">
-        <v>0.6720951407858428</v>
+        <v>0.6258241200933158</v>
       </c>
       <c r="AP2">
-        <v>69.20302781043945</v>
+        <v>81.93271433934088</v>
       </c>
       <c r="AQ2">
-        <v>3.068026779198527</v>
+        <v>9.09492924528303</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Finbond Group Limited (JSE:FGL)</t>
+          <t>JSE Limited (JSE:JSE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,118 +728,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.509</v>
+        <v>0.04269999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.0135</v>
       </c>
       <c r="G3">
-        <v>0.2376578645235362</v>
+        <v>0.5064194008559202</v>
       </c>
       <c r="H3">
-        <v>0.2376578645235362</v>
+        <v>0.384450784593438</v>
       </c>
       <c r="I3">
-        <v>0.2162357159828078</v>
+        <v>0.3281027104136948</v>
       </c>
       <c r="J3">
-        <v>0.2162357159828078</v>
+        <v>0.2447323495708707</v>
       </c>
       <c r="K3">
-        <v>-0.509</v>
+        <v>45.1</v>
       </c>
       <c r="L3">
-        <v>-0.002921928817451206</v>
+        <v>0.3216833095577746</v>
       </c>
       <c r="M3">
-        <v>9.94</v>
+        <v>36.02</v>
       </c>
       <c r="N3">
-        <v>0.04295592048401037</v>
+        <v>0.05485836125494974</v>
       </c>
       <c r="O3">
-        <v>-19.52848722986247</v>
+        <v>0.798669623059867</v>
       </c>
       <c r="P3">
-        <v>9.94</v>
+        <v>32.7</v>
       </c>
       <c r="Q3">
-        <v>0.04295592048401037</v>
+        <v>0.04980201035638136</v>
       </c>
       <c r="R3">
-        <v>-19.52848722986247</v>
+        <v>0.7250554323725056</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.09217101610216547</v>
       </c>
       <c r="U3">
-        <v>46.1</v>
+        <v>126.6</v>
       </c>
       <c r="V3">
-        <v>0.1992221261884183</v>
+        <v>0.1928114529393847</v>
       </c>
       <c r="W3">
-        <v>-0.004508414526129318</v>
+        <v>0.1765857478465153</v>
       </c>
       <c r="X3">
-        <v>0.03395331412313654</v>
+        <v>0.02207565974028637</v>
       </c>
       <c r="Y3">
-        <v>-0.03846172864926586</v>
+        <v>0.1545100881062289</v>
       </c>
       <c r="Z3">
-        <v>2.520667032236678</v>
+        <v>1.135222672064777</v>
       </c>
       <c r="AA3">
-        <v>0.5450582404699573</v>
+        <v>0.2778257118205349</v>
       </c>
       <c r="AB3">
-        <v>0.03608140159727898</v>
+        <v>0.02236551873126838</v>
       </c>
       <c r="AC3">
-        <v>0.5089768388726783</v>
+        <v>0.2554601930892665</v>
       </c>
       <c r="AD3">
-        <v>85.5</v>
+        <v>18</v>
       </c>
       <c r="AE3">
-        <v>23.20869137897444</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>108.7086913789744</v>
+        <v>18</v>
       </c>
       <c r="AG3">
-        <v>62.60869137897443</v>
+        <v>-108.6</v>
       </c>
       <c r="AH3">
-        <v>0.3196292659802778</v>
+        <v>0.0266824785057812</v>
       </c>
       <c r="AI3">
-        <v>0.4769835266975838</v>
+        <v>0.07751937984496124</v>
       </c>
       <c r="AJ3">
-        <v>0.2129484372904895</v>
+        <v>-0.1981751824817518</v>
       </c>
       <c r="AK3">
-        <v>0.3443657775879845</v>
+        <v>-1.028409090909091</v>
       </c>
       <c r="AL3">
-        <v>14.8</v>
+        <v>153.7</v>
       </c>
       <c r="AM3">
-        <v>14.8</v>
+        <v>-12</v>
       </c>
       <c r="AN3">
-        <v>1.903807615230461</v>
+        <v>0.3481624758220503</v>
       </c>
       <c r="AO3">
-        <v>2.324324324324324</v>
+        <v>0.2992843201040989</v>
       </c>
       <c r="AP3">
-        <v>1.394092437741582</v>
+        <v>-2.100580270793036</v>
       </c>
       <c r="AQ3">
-        <v>2.324324324324324</v>
+        <v>-3.833333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +853,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JSE Limited (JSE:JSE)</t>
+          <t>Finbond Group Limited (JSE:FGL)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,121 +862,118 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.04940000000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.0626</v>
+        <v>0.353</v>
       </c>
       <c r="G4">
-        <v>0.5680159256801592</v>
+        <v>0.2673716012084592</v>
       </c>
       <c r="H4">
-        <v>0.4445919044459191</v>
+        <v>0.2673716012084592</v>
       </c>
       <c r="I4">
-        <v>0.3456838949987397</v>
+        <v>0.1146361576815507</v>
       </c>
       <c r="J4">
-        <v>0.2452487092896464</v>
+        <v>0.1146361576815507</v>
       </c>
       <c r="K4">
-        <v>52.4</v>
+        <v>-5.18</v>
       </c>
       <c r="L4">
-        <v>0.3477106834771069</v>
+        <v>-0.0391238670694864</v>
       </c>
       <c r="M4">
-        <v>60.06</v>
+        <v>14.08</v>
       </c>
       <c r="N4">
-        <v>0.082217659137577</v>
+        <v>0.2427586206896552</v>
       </c>
       <c r="O4">
-        <v>1.14618320610687</v>
+        <v>-2.718146718146718</v>
       </c>
       <c r="P4">
-        <v>51.5</v>
+        <v>4.37</v>
       </c>
       <c r="Q4">
-        <v>0.07049965776865161</v>
+        <v>0.07534482758620689</v>
       </c>
       <c r="R4">
-        <v>0.982824427480916</v>
+        <v>-0.8436293436293437</v>
       </c>
       <c r="S4">
-        <v>8.560000000000002</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="T4">
-        <v>0.1425241425241426</v>
+        <v>0.6896306818181818</v>
       </c>
       <c r="U4">
-        <v>155.6</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="V4">
-        <v>0.2130047912388775</v>
+        <v>1.291379310344828</v>
       </c>
       <c r="W4">
-        <v>0.1947955390334573</v>
+        <v>-0.04854732895970009</v>
       </c>
       <c r="X4">
-        <v>0.03078425083323411</v>
+        <v>0.03804817361523015</v>
       </c>
       <c r="Y4">
-        <v>0.1640112882002231</v>
+        <v>-0.08659550257493023</v>
       </c>
       <c r="Z4">
-        <v>1.203412820127324</v>
+        <v>1.721921094075116</v>
       </c>
       <c r="AA4">
-        <v>0.2951354408788398</v>
+        <v>0.1973944180555833</v>
       </c>
       <c r="AB4">
-        <v>0.0309668332551462</v>
+        <v>0.03975262322796557</v>
       </c>
       <c r="AC4">
-        <v>0.2641686076236936</v>
+        <v>0.1576417948276177</v>
       </c>
       <c r="AD4">
-        <v>23.7</v>
+        <v>104.2</v>
       </c>
       <c r="AE4">
-        <v>27.82718511844962</v>
+        <v>0.09086361481341594</v>
       </c>
       <c r="AF4">
-        <v>51.52718511844962</v>
+        <v>104.2908636148134</v>
       </c>
       <c r="AG4">
-        <v>-104.0728148815504</v>
+        <v>29.39086361481341</v>
       </c>
       <c r="AH4">
-        <v>0.06588925052604797</v>
+        <v>0.6426169735736995</v>
       </c>
       <c r="AI4">
-        <v>0.1678808121820952</v>
+        <v>0.5168264892997735</v>
       </c>
       <c r="AJ4">
-        <v>-0.1661371303064881</v>
+        <v>0.3363150608553025</v>
       </c>
       <c r="AK4">
-        <v>-0.6877337657479625</v>
+        <v>0.2316231663773016</v>
       </c>
       <c r="AL4">
-        <v>194.5</v>
+        <v>16.2</v>
       </c>
       <c r="AM4">
-        <v>-16</v>
+        <v>16.2</v>
       </c>
       <c r="AN4">
-        <v>0.3682411435674332</v>
+        <v>5.888336347197106</v>
       </c>
       <c r="AO4">
-        <v>0.2760925449871465</v>
+        <v>0.9320987654320988</v>
       </c>
       <c r="AP4">
-        <v>-1.617041871994257</v>
+        <v>1.660876108432042</v>
       </c>
       <c r="AQ4">
-        <v>-3.35625</v>
+        <v>0.9320987654320988</v>
       </c>
     </row>
     <row r="5">
@@ -984,7 +984,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vunani Limited (JSE:VUN)</t>
+          <t>Mettle Investments Limited (JSE:MLE)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -993,115 +993,112 @@
         </is>
       </c>
       <c r="G5">
-        <v>0.2795302013422818</v>
+        <v>0.5699481865284974</v>
       </c>
       <c r="H5">
-        <v>0.2795302013422818</v>
+        <v>0.5699481865284974</v>
       </c>
       <c r="I5">
-        <v>0.2055314442520079</v>
+        <v>0.5803108808290155</v>
       </c>
       <c r="J5">
-        <v>0.1735305612785813</v>
+        <v>0.4370391073463332</v>
       </c>
       <c r="K5">
-        <v>5.31</v>
+        <v>2.28</v>
       </c>
       <c r="L5">
-        <v>0.1781879194630872</v>
+        <v>0.1181347150259067</v>
       </c>
       <c r="M5">
-        <v>0.898</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.03277372262773723</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.1691148775894539</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>0.783</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.02857664233576642</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.1474576271186441</v>
+        <v>-0</v>
       </c>
       <c r="S5">
-        <v>0.115</v>
-      </c>
-      <c r="T5">
-        <v>0.1280623608017817</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>3.51</v>
+        <v>18.4</v>
       </c>
       <c r="V5">
-        <v>0.1281021897810219</v>
+        <v>0.5257142857142857</v>
       </c>
       <c r="W5">
-        <v>0.1889679715302491</v>
+        <v>0.06745562130177515</v>
       </c>
       <c r="X5">
-        <v>0.03196129666882143</v>
+        <v>0.04468871944084844</v>
       </c>
       <c r="Y5">
-        <v>0.1570066748614277</v>
+        <v>0.02276690186092671</v>
       </c>
       <c r="Z5">
-        <v>1.367862541050159</v>
+        <v>0.2081266445240047</v>
       </c>
       <c r="AA5">
-        <v>0.2373659545003806</v>
+        <v>0.0909594829377586</v>
       </c>
       <c r="AB5">
-        <v>0.03463892585100178</v>
+        <v>0.04182895912586271</v>
       </c>
       <c r="AC5">
-        <v>0.2027270286493789</v>
+        <v>0.04913052381189589</v>
       </c>
       <c r="AD5">
-        <v>5.22</v>
+        <v>88.7</v>
       </c>
       <c r="AE5">
-        <v>0.7758148064508188</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>5.995814806450818</v>
+        <v>88.7</v>
       </c>
       <c r="AG5">
-        <v>2.485814806450819</v>
+        <v>70.30000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.179537910399858</v>
+        <v>0.7170573969280517</v>
       </c>
       <c r="AI5">
-        <v>0.1557523807872769</v>
+        <v>0.691348402182385</v>
       </c>
       <c r="AJ5">
-        <v>0.08317707991398844</v>
+        <v>0.6676163342830009</v>
       </c>
       <c r="AK5">
-        <v>0.07105207696899128</v>
+        <v>0.6396724294813467</v>
       </c>
       <c r="AL5">
-        <v>0.515</v>
+        <v>5.64</v>
       </c>
       <c r="AM5">
-        <v>0.226</v>
+        <v>5.64</v>
       </c>
       <c r="AN5">
-        <v>0.7510791366906474</v>
+        <v>7.849557522123893</v>
       </c>
       <c r="AO5">
-        <v>11.04854368932039</v>
+        <v>1.985815602836879</v>
       </c>
       <c r="AP5">
-        <v>0.3576711951727796</v>
+        <v>6.221238938053098</v>
       </c>
       <c r="AQ5">
-        <v>25.17699115044248</v>
+        <v>1.985815602836879</v>
       </c>
     </row>
     <row r="6">
@@ -1112,7 +1109,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PSG Group Limited (JSE:PSG)</t>
+          <t>Vunani Limited (JSE:VUN)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1120,122 +1117,116 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D6">
-        <v>0.0898</v>
-      </c>
-      <c r="E6">
-        <v>0.134</v>
-      </c>
       <c r="G6">
-        <v>0.1048537234042553</v>
+        <v>0.04395280235988201</v>
       </c>
       <c r="H6">
-        <v>0.1048537234042553</v>
+        <v>0.04395280235988201</v>
       </c>
       <c r="I6">
-        <v>0.06057180851063829</v>
+        <v>0.04808259587020649</v>
       </c>
       <c r="J6">
-        <v>0.05448195037200129</v>
+        <v>0.04057197266718943</v>
       </c>
       <c r="K6">
-        <v>145</v>
+        <v>2.95</v>
       </c>
       <c r="L6">
-        <v>0.09640957446808511</v>
+        <v>0.08702064896755163</v>
       </c>
       <c r="M6">
-        <v>65.3</v>
+        <v>0.7324000000000001</v>
       </c>
       <c r="N6">
-        <v>0.0178796341930891</v>
+        <v>0.02672992700729927</v>
       </c>
       <c r="O6">
-        <v>0.4503448275862069</v>
+        <v>0.248271186440678</v>
       </c>
       <c r="P6">
-        <v>65.3</v>
+        <v>0.4824000000000001</v>
       </c>
       <c r="Q6">
-        <v>0.0178796341930891</v>
+        <v>0.0176058394160584</v>
       </c>
       <c r="R6">
-        <v>0.4503448275862069</v>
+        <v>0.1635254237288136</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.3413435281267067</v>
       </c>
       <c r="U6">
-        <v>104.2</v>
+        <v>8.65</v>
       </c>
       <c r="V6">
-        <v>0.02853074858989103</v>
+        <v>0.3156934306569343</v>
       </c>
       <c r="W6">
-        <v>0.1209038605853415</v>
+        <v>0.09305993690851735</v>
       </c>
       <c r="X6">
-        <v>0.03168681457670727</v>
+        <v>0.02383986404294389</v>
       </c>
       <c r="Y6">
-        <v>0.0892170460086342</v>
+        <v>0.06922007286557347</v>
       </c>
       <c r="Z6">
-        <v>0.9152315462788293</v>
+        <v>1.399669694467382</v>
       </c>
       <c r="AA6">
-        <v>0.04986359968325318</v>
+        <v>0.05678736058702399</v>
       </c>
       <c r="AB6">
-        <v>0.03197751410907958</v>
+        <v>0.0263653793103223</v>
       </c>
       <c r="AC6">
-        <v>0.01788608557417361</v>
+        <v>0.03042198127670169</v>
       </c>
       <c r="AD6">
-        <v>672.9</v>
+        <v>6.11</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>672.9</v>
+        <v>6.11</v>
       </c>
       <c r="AG6">
-        <v>568.6999999999999</v>
+        <v>-2.54</v>
       </c>
       <c r="AH6">
-        <v>0.1555802177984324</v>
+        <v>0.1823336317517159</v>
       </c>
       <c r="AI6">
-        <v>0.2511758118701008</v>
+        <v>0.1493522366169641</v>
       </c>
       <c r="AJ6">
-        <v>0.134734298372385</v>
+        <v>-0.1021721641190668</v>
       </c>
       <c r="AK6">
-        <v>0.2208715240018642</v>
+        <v>-0.078735275883447</v>
       </c>
       <c r="AL6">
-        <v>48.5</v>
+        <v>0.62</v>
       </c>
       <c r="AM6">
-        <v>48.5</v>
+        <v>0.178</v>
       </c>
       <c r="AN6">
-        <v>4.922457937088515</v>
+        <v>2.715555555555556</v>
       </c>
       <c r="AO6">
-        <v>1.878350515463918</v>
+        <v>2.629032258064516</v>
       </c>
       <c r="AP6">
-        <v>4.160204828090709</v>
+        <v>-1.128888888888889</v>
       </c>
       <c r="AQ6">
-        <v>1.878350515463918</v>
+        <v>9.157303370786517</v>
       </c>
     </row>
     <row r="7">
@@ -1246,7 +1237,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mettle Investments Limited (JSE:MLE)</t>
+          <t>RMB Holdings Limited (JSE:RMH)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1254,113 +1245,116 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D7">
+        <v>-0.212</v>
+      </c>
+      <c r="E7">
+        <v>0.332</v>
+      </c>
       <c r="G7">
-        <v>0.4952127659574468</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.4952127659574468</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5946385045965235</v>
+        <v>0.7259668508287292</v>
       </c>
       <c r="J7">
-        <v>0.4224714542679087</v>
+        <v>0.7259668508287292</v>
       </c>
       <c r="K7">
-        <v>1.76</v>
+        <v>1878.8</v>
       </c>
       <c r="L7">
-        <v>0.09361702127659574</v>
+        <v>207.6022099447514</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>161.1</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>1.194217939214233</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0.08574622099212263</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>161.1</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>1.194217939214233</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0.08574622099212263</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>11.9</v>
+        <v>41.7</v>
       </c>
       <c r="V7">
-        <v>0.5219298245614035</v>
+        <v>0.3091178650852484</v>
       </c>
       <c r="W7">
-        <v>0.05238095238095238</v>
+        <v>0.5382918373778758</v>
       </c>
       <c r="X7">
-        <v>0.05512978012895252</v>
+        <v>0.02182837413446447</v>
       </c>
       <c r="Y7">
-        <v>-0.002748827748000136</v>
+        <v>0.5164634632434113</v>
       </c>
       <c r="Z7">
-        <v>0.2093541655699941</v>
+        <v>0.00241738164178945</v>
       </c>
       <c r="AA7">
-        <v>0.08844615878539994</v>
+        <v>0.00175493893774107</v>
       </c>
       <c r="AB7">
-        <v>0.08162961007212967</v>
+        <v>0.02182837413446447</v>
       </c>
       <c r="AC7">
-        <v>0.006816548713270268</v>
+        <v>-0.0200734351967234</v>
       </c>
       <c r="AD7">
-        <v>71.2</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.3389805679267955</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>71.5389805679268</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>59.6389805679268</v>
+        <v>-41.7</v>
       </c>
       <c r="AH7">
-        <v>0.7583183551195645</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.6524958568326421</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.7234318056466793</v>
+        <v>-0.4474248927038627</v>
       </c>
       <c r="AK7">
-        <v>0.6101862350250196</v>
+        <v>-0.1707616707616708</v>
       </c>
       <c r="AL7">
-        <v>5.13</v>
+        <v>14.6</v>
       </c>
       <c r="AM7">
-        <v>5.13</v>
-      </c>
-      <c r="AN7">
-        <v>6.274786287124351</v>
+        <v>14.6</v>
       </c>
       <c r="AO7">
-        <v>2.163742690058479</v>
-      </c>
-      <c r="AP7">
-        <v>5.255924964125038</v>
+        <v>0.45</v>
       </c>
       <c r="AQ7">
-        <v>2.163742690058479</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8">
@@ -1371,7 +1365,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>African Dawn Capital Limited (JSE:ADW)</t>
+          <t>Transaction Capital Limited (JSE:TCP)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1380,97 +1374,106 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.289</v>
+        <v>0.168</v>
+      </c>
+      <c r="E8">
+        <v>-0.17</v>
+      </c>
+      <c r="F8">
+        <v>0.135</v>
       </c>
       <c r="G8">
-        <v>0.01289134438305709</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.08148140742210901</v>
+        <v>0.001669997717859718</v>
       </c>
       <c r="J8">
-        <v>0.08148140742210901</v>
+        <v>0.001311817211857226</v>
       </c>
       <c r="K8">
-        <v>-0.6899999999999999</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="L8">
-        <v>-1.270718232044199</v>
+        <v>0.0406786941580756</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>19.02</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.01691869774061555</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.00844772967265</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>16.5</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.01467710371819961</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.74234424498416</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>2.52</v>
+      </c>
+      <c r="T8">
+        <v>0.1324921135646688</v>
       </c>
       <c r="U8">
-        <v>0.07000000000000001</v>
+        <v>107.6</v>
       </c>
       <c r="V8">
-        <v>0.097629009762901</v>
+        <v>0.09571250667141078</v>
       </c>
       <c r="W8">
-        <v>-3.013100436681222</v>
+        <v>0.02931888544891641</v>
       </c>
       <c r="X8">
-        <v>0.04019641391332243</v>
+        <v>0.02932792896992912</v>
       </c>
       <c r="Y8">
-        <v>-3.053296850594545</v>
+        <v>-9.043521012705447e-06</v>
       </c>
       <c r="Z8">
-        <v>0.4685970996267702</v>
+        <v>0.2503613132480511</v>
       </c>
       <c r="AA8">
-        <v>0.03818195119150746</v>
+        <v>0.000328428279901972</v>
       </c>
       <c r="AB8">
-        <v>0.04042742286557492</v>
+        <v>0.03312446947758829</v>
       </c>
       <c r="AC8">
-        <v>-0.00224547167406746</v>
+        <v>-0.03279604119768632</v>
       </c>
       <c r="AD8">
-        <v>0.792</v>
+        <v>934.2</v>
       </c>
       <c r="AE8">
-        <v>0.108777978848974</v>
+        <v>0.4561226564112887</v>
       </c>
       <c r="AF8">
-        <v>0.900777978848974</v>
+        <v>934.6561226564113</v>
       </c>
       <c r="AG8">
-        <v>0.830777978848974</v>
+        <v>827.0561226564113</v>
       </c>
       <c r="AH8">
-        <v>0.5567995056341815</v>
+        <v>0.4539686442248737</v>
       </c>
       <c r="AI8">
-        <v>0.8764324566067961</v>
+        <v>0.709817183740027</v>
       </c>
       <c r="AJ8">
-        <v>0.5367552647743401</v>
+        <v>0.4238583100666812</v>
       </c>
       <c r="AK8">
-        <v>0.8674014199484682</v>
+        <v>0.683994487692326</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1479,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>12</v>
+        <v>1946.25</v>
       </c>
       <c r="AP8">
-        <v>12.58754513407536</v>
+        <v>1723.033588867524</v>
       </c>
     </row>
     <row r="9">
@@ -1493,7 +1496,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RMB Holdings Limited (JSE:RMH)</t>
+          <t>FirstRand Limited (JSE:FSR)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1502,10 +1505,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.283</v>
+        <v>0.0335</v>
       </c>
       <c r="E9">
-        <v>0.0951</v>
+        <v>-0.03700000000000001</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1514,103 +1517,97 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-20.36290322580645</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>-20.32635590090994</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>706.4</v>
+        <v>1047.1</v>
       </c>
       <c r="L9">
-        <v>1424.193548387097</v>
+        <v>0.2270184719451912</v>
       </c>
       <c r="M9">
-        <v>360.7</v>
+        <v>542.9208</v>
       </c>
       <c r="N9">
-        <v>0.04445129089900795</v>
+        <v>0.02780402218500822</v>
       </c>
       <c r="O9">
-        <v>0.5106172140430351</v>
+        <v>0.5184994747397574</v>
       </c>
       <c r="P9">
-        <v>360.7</v>
+        <v>470.9208</v>
       </c>
       <c r="Q9">
-        <v>0.04445129089900795</v>
+        <v>0.02411676320115534</v>
       </c>
       <c r="R9">
-        <v>0.5106172140430351</v>
+        <v>0.4497381338936109</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.1326160279731408</v>
       </c>
       <c r="U9">
-        <v>8.279999999999999</v>
+        <v>6041.1</v>
       </c>
       <c r="V9">
-        <v>0.001020395588144679</v>
+        <v>0.3093763923243559</v>
       </c>
       <c r="W9">
-        <v>0.2091054407672725</v>
+        <v>0.1088484168070022</v>
       </c>
       <c r="X9">
-        <v>0.03048035445556076</v>
+        <v>0.02680245953111876</v>
       </c>
       <c r="Y9">
-        <v>0.1786250863117118</v>
+        <v>0.08204595727588346</v>
       </c>
       <c r="Z9">
-        <v>0.0001388826665471977</v>
+        <v>0.4528753915186505</v>
       </c>
       <c r="AA9">
-        <v>-0.002822978508705739</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.03057642588695009</v>
+        <v>0.03888728342940406</v>
       </c>
       <c r="AC9">
-        <v>-0.03339940439565583</v>
+        <v>-0.03888728342940406</v>
       </c>
       <c r="AD9">
-        <v>261.7</v>
+        <v>10767.5</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>261.7</v>
+        <v>10767.5</v>
       </c>
       <c r="AG9">
-        <v>253.42</v>
+        <v>4726.4</v>
       </c>
       <c r="AH9">
-        <v>0.03124328454430409</v>
+        <v>0.3554310726145599</v>
       </c>
       <c r="AI9">
-        <v>0.06974946695095949</v>
+        <v>0.5514978923484309</v>
       </c>
       <c r="AJ9">
-        <v>0.03028470635474526</v>
+        <v>0.1948781805212529</v>
       </c>
       <c r="AK9">
-        <v>0.06769202824997596</v>
+        <v>0.3505451309055848</v>
       </c>
       <c r="AL9">
-        <v>17.9</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>17.9</v>
-      </c>
-      <c r="AO9">
-        <v>-0.5642458100558659</v>
-      </c>
-      <c r="AQ9">
-        <v>-0.5642458100558659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1621,7 +1618,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transaction Capital Limited (JSE:TCP)</t>
+          <t>African Dawn Capital Limited (JSE:ADW)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1630,16 +1627,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.174</v>
-      </c>
-      <c r="E10">
-        <v>-0.0495</v>
-      </c>
-      <c r="F10">
-        <v>0.15</v>
+        <v>-0.274</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.006423982869379015</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1651,85 +1642,82 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>48</v>
+        <v>-0.648</v>
       </c>
       <c r="L10">
-        <v>0.2004175365344468</v>
+        <v>-1.387580299785867</v>
       </c>
       <c r="M10">
-        <v>25.826</v>
+        <v>-0</v>
       </c>
       <c r="N10">
-        <v>0.02795626759038753</v>
+        <v>-0</v>
       </c>
       <c r="O10">
-        <v>0.5380416666666666</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>25.1</v>
+        <v>-0</v>
       </c>
       <c r="Q10">
-        <v>0.0271703831998268</v>
+        <v>-0</v>
       </c>
       <c r="R10">
-        <v>0.5229166666666667</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.7259999999999991</v>
-      </c>
-      <c r="T10">
-        <v>0.02811120576163553</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>60.6</v>
+        <v>0.092</v>
       </c>
       <c r="V10">
-        <v>0.06559861441870535</v>
+        <v>0.1513157894736842</v>
       </c>
       <c r="W10">
-        <v>0.1640464798359535</v>
+        <v>-5.102362204724409</v>
       </c>
       <c r="X10">
-        <v>0.0366075599953935</v>
+        <v>0.03641239070914963</v>
       </c>
       <c r="Y10">
-        <v>0.12743891984056</v>
+        <v>-5.138774595433559</v>
       </c>
       <c r="Z10">
-        <v>0.28126834997064</v>
+        <v>0.5500588928150766</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.03524707330253263</v>
+        <v>0.03906181968718635</v>
       </c>
       <c r="AC10">
-        <v>-0.03524707330253263</v>
+        <v>-0.03906181968718635</v>
       </c>
       <c r="AD10">
-        <v>742.9</v>
+        <v>0.983</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>742.9</v>
+        <v>0.983</v>
       </c>
       <c r="AG10">
-        <v>682.3</v>
+        <v>0.891</v>
       </c>
       <c r="AH10">
-        <v>0.4457310853782925</v>
+        <v>0.6178504085480829</v>
       </c>
       <c r="AI10">
-        <v>0.673038593948179</v>
+        <v>1.912451361867704</v>
       </c>
       <c r="AJ10">
-        <v>0.4248178818255401</v>
+        <v>0.5943962641761174</v>
       </c>
       <c r="AK10">
-        <v>0.6540452453987731</v>
+        <v>2.111374407582938</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1746,7 +1734,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Investec Group Limited (JSE:INL)</t>
+          <t>Investec Group (JSE:INL)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1755,10 +1743,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0581</v>
+        <v>-0.0571</v>
       </c>
       <c r="E11">
-        <v>0.119</v>
+        <v>0.252</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1767,103 +1755,97 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.01090971350702616</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>-0.009829963888731674</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>622.1</v>
+        <v>1277.3</v>
       </c>
       <c r="L11">
-        <v>0.2139712457866135</v>
+        <v>0.7387079983806605</v>
       </c>
       <c r="M11">
-        <v>495.2</v>
+        <v>188.9</v>
       </c>
       <c r="N11">
-        <v>0.08798393831174599</v>
+        <v>0.0796172974795583</v>
       </c>
       <c r="O11">
-        <v>0.7960135026523066</v>
+        <v>0.1478900806388476</v>
       </c>
       <c r="P11">
-        <v>325.2</v>
+        <v>170.6</v>
       </c>
       <c r="Q11">
-        <v>0.05777943606417568</v>
+        <v>0.07190424007418023</v>
       </c>
       <c r="R11">
-        <v>0.5227455393023629</v>
+        <v>0.1335629844202615</v>
       </c>
       <c r="S11">
-        <v>170</v>
+        <v>18.30000000000001</v>
       </c>
       <c r="T11">
-        <v>0.3432956381260097</v>
+        <v>0.09687665431445215</v>
       </c>
       <c r="U11">
-        <v>7810.9</v>
+        <v>4047.7</v>
       </c>
       <c r="V11">
-        <v>1.387790274150276</v>
+        <v>1.706018713647475</v>
       </c>
       <c r="W11">
-        <v>0.1064802136108449</v>
+        <v>0.2198223935566034</v>
       </c>
       <c r="X11">
-        <v>0.04407510289957417</v>
+        <v>0.05590191883685267</v>
       </c>
       <c r="Y11">
-        <v>0.06240511071127069</v>
+        <v>0.1639204747197508</v>
       </c>
       <c r="Z11">
-        <v>0.456189082263372</v>
+        <v>0.2577500157264626</v>
       </c>
       <c r="AA11">
-        <v>-0.00448432220508259</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.0373876983315921</v>
+        <v>0.04150285411094836</v>
       </c>
       <c r="AC11">
-        <v>-0.04187202053667469</v>
+        <v>-0.04150285411094836</v>
       </c>
       <c r="AD11">
-        <v>9151.6</v>
+        <v>8962.200000000001</v>
       </c>
       <c r="AE11">
-        <v>669.5945052516392</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>9821.19450525164</v>
+        <v>8962.200000000001</v>
       </c>
       <c r="AG11">
-        <v>2010.294505251641</v>
+        <v>4914.500000000001</v>
       </c>
       <c r="AH11">
-        <v>0.6356968185537196</v>
+        <v>0.7906800296432226</v>
       </c>
       <c r="AI11">
-        <v>0.5978874252270775</v>
+        <v>0.5772642074549285</v>
       </c>
       <c r="AJ11">
-        <v>0.2631759682844187</v>
+        <v>0.6744109453692142</v>
       </c>
       <c r="AK11">
-        <v>0.2333320705873825</v>
+        <v>0.4281818498640831</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>89.54598825831702</v>
-      </c>
-      <c r="AP11">
-        <v>19.67020063847006</v>
       </c>
     </row>
     <row r="12">
@@ -1874,7 +1856,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FirstRand Limited (JSE:FSR)</t>
+          <t>Investec Bank Limited (JSE:INLP)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1883,13 +1865,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.0958</v>
+        <v>0.0385</v>
       </c>
       <c r="E12">
-        <v>0.105</v>
-      </c>
-      <c r="F12">
-        <v>0.098</v>
+        <v>-0.00244</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1904,28 +1883,28 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2185.9</v>
+        <v>174.1</v>
       </c>
       <c r="L12">
-        <v>0.3216261550232477</v>
+        <v>0.3012110726643599</v>
       </c>
       <c r="M12">
-        <v>1155.4746</v>
+        <v>62.3</v>
       </c>
       <c r="N12">
-        <v>0.04589952331770875</v>
+        <v>0.192998760842627</v>
       </c>
       <c r="O12">
-        <v>0.5286035957729082</v>
+        <v>0.3578403216542217</v>
       </c>
       <c r="P12">
-        <v>1155.4746</v>
+        <v>62.3</v>
       </c>
       <c r="Q12">
-        <v>0.04589952331770875</v>
+        <v>0.192998760842627</v>
       </c>
       <c r="R12">
-        <v>0.5286035957729082</v>
+        <v>0.3578403216542217</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1934,55 +1913,55 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>5191</v>
+        <v>3340.2</v>
       </c>
       <c r="V12">
-        <v>0.2062048144911416</v>
+        <v>10.34758364312268</v>
       </c>
       <c r="W12">
-        <v>0.245133001390571</v>
+        <v>0.06009457733595665</v>
       </c>
       <c r="X12">
-        <v>0.03940446401773831</v>
+        <v>0.1306575631307586</v>
       </c>
       <c r="Y12">
-        <v>0.2057285373728327</v>
+        <v>-0.07056298579480198</v>
       </c>
       <c r="Z12">
-        <v>0.2241216701951551</v>
+        <v>0.135766800554342</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04634563994369225</v>
+        <v>0.05646700980486113</v>
       </c>
       <c r="AC12">
-        <v>-0.04634563994369225</v>
+        <v>-0.05646700980486113</v>
       </c>
       <c r="AD12">
-        <v>29114.8</v>
+        <v>3894.5</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>29114.8</v>
+        <v>3894.5</v>
       </c>
       <c r="AG12">
-        <v>23923.8</v>
+        <v>554.3000000000002</v>
       </c>
       <c r="AH12">
-        <v>0.5362947790336128</v>
+        <v>0.9234581367225475</v>
       </c>
       <c r="AI12">
-        <v>0.739878223568517</v>
+        <v>0.6234292208935632</v>
       </c>
       <c r="AJ12">
-        <v>0.487268268639328</v>
+        <v>0.6319689887128037</v>
       </c>
       <c r="AK12">
-        <v>0.700349533662375</v>
+        <v>0.1906973543881378</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1999,7 +1978,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ecsponent Limited (JSE:ECS)</t>
+          <t>Afristrat Investment Holdings Limited (JSE:ATI)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2008,22 +1987,22 @@
         </is>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13">
-        <v>0.00672048177786569</v>
+        <v>-0</v>
       </c>
       <c r="J13">
-        <v>0.00672048177786569</v>
+        <v>-0</v>
       </c>
       <c r="K13">
-        <v>-18.1</v>
+        <v>-151.8</v>
       </c>
       <c r="L13">
-        <v>-7.098039215686276</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -2047,67 +2026,64 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>2.67</v>
+        <v>0.11</v>
       </c>
       <c r="V13">
-        <v>0.4348534201954398</v>
+        <v>0.00270935960591133</v>
       </c>
       <c r="W13">
-        <v>-1.792079207920792</v>
+        <v>34.65753424657535</v>
       </c>
       <c r="X13">
-        <v>0.3083541119654462</v>
+        <v>0.03240404995555723</v>
       </c>
       <c r="Y13">
-        <v>-2.100433319886239</v>
+        <v>34.62513019661979</v>
       </c>
       <c r="Z13">
-        <v>0.01657519823816659</v>
+        <v>-0.2391801195417405</v>
       </c>
       <c r="AA13">
-        <v>0.00011139331772411</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.05413058214472406</v>
+        <v>0.06124300140971414</v>
       </c>
       <c r="AC13">
-        <v>-0.05401918882699995</v>
+        <v>-0.06124300140971414</v>
       </c>
       <c r="AD13">
-        <v>214.4</v>
+        <v>47.6</v>
       </c>
       <c r="AE13">
-        <v>0.7443138573322124</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>215.1443138573322</v>
+        <v>47.6</v>
       </c>
       <c r="AG13">
-        <v>212.4743138573322</v>
+        <v>47.49</v>
       </c>
       <c r="AH13">
-        <v>0.9722528908942067</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="AI13">
-        <v>1.020490995184376</v>
+        <v>0.9732161112246984</v>
       </c>
       <c r="AJ13">
-        <v>0.971914007405723</v>
+        <v>0.5391077307299353</v>
       </c>
       <c r="AK13">
-        <v>1.020753833634026</v>
+        <v>0.973155737704918</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>1291.566265060241</v>
-      </c>
-      <c r="AP13">
-        <v>1279.965746128507</v>
+        <v>-8.960000000000001</v>
+      </c>
+      <c r="AQ13">
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
@@ -2127,249 +2103,118 @@
         </is>
       </c>
       <c r="D14">
-        <v>-0.0703</v>
-      </c>
-      <c r="E14">
-        <v>0.1</v>
+        <v>-0.0897</v>
       </c>
       <c r="G14">
-        <v>0.2418011257035647</v>
+        <v>0.1947014297729184</v>
       </c>
       <c r="H14">
-        <v>0.2101313320825516</v>
+        <v>0.1947014297729184</v>
       </c>
       <c r="I14">
-        <v>0.1497874448823401</v>
+        <v>0.18040370058873</v>
       </c>
       <c r="J14">
-        <v>0.1020728959077237</v>
+        <v>0.18040370058873</v>
       </c>
       <c r="K14">
-        <v>44.4</v>
+        <v>-15.5</v>
       </c>
       <c r="L14">
-        <v>0.1666041275797373</v>
+        <v>-0.06518082422203532</v>
       </c>
       <c r="M14">
-        <v>56.03</v>
+        <v>74.3</v>
       </c>
       <c r="N14">
-        <v>0.115597276665979</v>
+        <v>0.2112595962468012</v>
       </c>
       <c r="O14">
-        <v>1.261936936936937</v>
+        <v>-4.793548387096774</v>
       </c>
       <c r="P14">
-        <v>49.5</v>
+        <v>64.2</v>
       </c>
       <c r="Q14">
-        <v>0.1021250257891479</v>
+        <v>0.182541939152687</v>
       </c>
       <c r="R14">
-        <v>1.114864864864865</v>
+        <v>-4.141935483870968</v>
       </c>
       <c r="S14">
-        <v>6.530000000000001</v>
+        <v>10.09999999999999</v>
       </c>
       <c r="T14">
-        <v>0.11654470819204</v>
+        <v>0.1359353970390309</v>
       </c>
       <c r="U14">
-        <v>323</v>
+        <v>172</v>
       </c>
       <c r="V14">
-        <v>0.6663915824221168</v>
+        <v>0.4890531703156099</v>
       </c>
       <c r="W14">
-        <v>0.1113898645258404</v>
+        <v>-0.043405208625035</v>
       </c>
       <c r="X14">
-        <v>0.03299207280755351</v>
+        <v>0.02299536172799605</v>
       </c>
       <c r="Y14">
-        <v>0.07839779171828692</v>
+        <v>-0.06640057035303105</v>
       </c>
       <c r="Z14">
-        <v>-2.247204838185555</v>
+        <v>-8.615942028985518</v>
       </c>
       <c r="AA14">
-        <v>-0.2293787055314473</v>
+        <v>-1.554347826086958</v>
       </c>
       <c r="AB14">
-        <v>0.03496193064059699</v>
+        <v>0.02413441606655552</v>
       </c>
       <c r="AC14">
-        <v>-0.2643406361720443</v>
+        <v>-1.578482242153514</v>
       </c>
       <c r="AD14">
-        <v>105.6</v>
+        <v>45.5</v>
       </c>
       <c r="AE14">
-        <v>63.40822969428179</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>169.0082296942818</v>
+        <v>45.5</v>
       </c>
       <c r="AG14">
-        <v>-153.9917703057182</v>
+        <v>-126.5</v>
       </c>
       <c r="AH14">
-        <v>0.2585377115006208</v>
+        <v>0.114551863041289</v>
       </c>
       <c r="AI14">
-        <v>0.3106150954365136</v>
+        <v>0.1490825688073394</v>
       </c>
       <c r="AJ14">
-        <v>-0.4656423895107586</v>
+        <v>-0.5617229129662522</v>
       </c>
       <c r="AK14">
-        <v>-0.6964542682044759</v>
+        <v>-0.9496996996996998</v>
       </c>
       <c r="AL14">
-        <v>5.74</v>
+        <v>6.42</v>
       </c>
       <c r="AM14">
-        <v>-7.76</v>
+        <v>-2.09</v>
       </c>
       <c r="AN14">
-        <v>1.739703459637562</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="AO14">
-        <v>6.811846689895471</v>
+        <v>6.682242990654205</v>
       </c>
       <c r="AP14">
-        <v>-2.536931965497829</v>
+        <v>-2.555555555555555</v>
       </c>
       <c r="AQ14">
-        <v>-5.038659793814434</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Sebata Holdings Limited (JSE:SEB)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="G15">
-        <v>0.003847736625514403</v>
-      </c>
-      <c r="H15">
-        <v>0.003847736625514403</v>
-      </c>
-      <c r="I15">
-        <v>-0.6320603723324569</v>
-      </c>
-      <c r="J15">
-        <v>-0.6320603723324569</v>
-      </c>
-      <c r="K15">
-        <v>-11.8</v>
-      </c>
-      <c r="L15">
-        <v>-0.242798353909465</v>
-      </c>
-      <c r="M15">
-        <v>0.516</v>
-      </c>
-      <c r="N15">
-        <v>0.02064</v>
-      </c>
-      <c r="O15">
-        <v>-0.04372881355932203</v>
-      </c>
-      <c r="P15">
-        <v>-0</v>
-      </c>
-      <c r="Q15">
-        <v>-0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0.516</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>1.2</v>
-      </c>
-      <c r="V15">
-        <v>0.048</v>
-      </c>
-      <c r="W15">
-        <v>-0.2045060658578856</v>
-      </c>
-      <c r="X15">
-        <v>0.03325036481610158</v>
-      </c>
-      <c r="Y15">
-        <v>-0.2377564306739872</v>
-      </c>
-      <c r="Z15">
-        <v>0.8279292145260708</v>
-      </c>
-      <c r="AA15">
-        <v>-0.5233012475982669</v>
-      </c>
-      <c r="AB15">
-        <v>0.03701092827211483</v>
-      </c>
-      <c r="AC15">
-        <v>-0.5603121758703817</v>
-      </c>
-      <c r="AD15">
-        <v>7.09</v>
-      </c>
-      <c r="AE15">
-        <v>2.440670476787025</v>
-      </c>
-      <c r="AF15">
-        <v>9.530670476787025</v>
-      </c>
-      <c r="AG15">
-        <v>8.330670476787025</v>
-      </c>
-      <c r="AH15">
-        <v>0.2760059490647291</v>
-      </c>
-      <c r="AI15">
-        <v>0.1863983082544142</v>
-      </c>
-      <c r="AJ15">
-        <v>0.2499400809410323</v>
-      </c>
-      <c r="AK15">
-        <v>0.1668447548818714</v>
-      </c>
-      <c r="AL15">
-        <v>0.657</v>
-      </c>
-      <c r="AM15">
-        <v>0.238</v>
-      </c>
-      <c r="AN15">
-        <v>-0.2392845089436382</v>
-      </c>
-      <c r="AO15">
-        <v>-48.09741248097413</v>
-      </c>
-      <c r="AP15">
-        <v>-0.2811566141338854</v>
-      </c>
-      <c r="AQ15">
-        <v>-132.7731092436975</v>
+        <v>-20.52631578947368</v>
       </c>
     </row>
   </sheetData>
